--- a/ISON.xlsx
+++ b/ISON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgoSpring\python\ISON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudeepa.w\Documents\GitHub\AlgoSpring-ISON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9774655-CB49-4287-8EA7-68EA2BA5D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE33560-3862-41E4-A732-BCD0A9CB9FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="132">
   <si>
     <t>KEY</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Covered up to USD 41,000</t>
+  </si>
+  <si>
+    <t>ISON</t>
   </si>
 </sst>
 </file>
@@ -846,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1055,7 @@
         <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>113</v>
@@ -1222,7 +1225,7 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -1398,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>113</v>
